--- a/Oct 2018.xlsx
+++ b/Oct 2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Downloads/Sleep &amp; Meditation &amp; Memory articles/Analysis/R analysis/Oct 2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1BE2E-22D8-7A42-9EE0-4FED7883B5BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062BB44-8E9B-044F-9686-D34D4890BEFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>MM7</t>
-  </si>
-  <si>
-    <t>November 20,2018</t>
   </si>
   <si>
     <t>I count my breath with intention</t>
@@ -624,9 +621,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -703,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -919,26 +915,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,9 +1249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EEF925-A145-1E4C-BE46-D057DDAEEF7F}">
   <dimension ref="A1:GQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN48" sqref="BN48"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1500,7 @@
       <c r="A2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="82">
         <v>43052</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1705,7 +1698,7 @@
       <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="82">
         <v>43065</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1905,7 +1898,7 @@
       <c r="A4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="82">
         <v>43069</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2103,7 +2096,7 @@
       <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="82">
         <v>43073</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2301,7 +2294,7 @@
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="82">
         <v>43079</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2499,7 +2492,7 @@
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="82">
         <v>43128</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -2703,7 +2696,7 @@
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>43138</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2903,7 +2896,7 @@
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>43145</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3103,7 +3096,7 @@
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <v>43166</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3303,7 +3296,7 @@
       <c r="A11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <v>43138</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3503,7 +3496,7 @@
       <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <v>43147</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3703,7 +3696,7 @@
       <c r="A13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <v>43158</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3906,7 +3899,7 @@
       <c r="A14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="82">
         <v>43168</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -4109,7 +4102,7 @@
       <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="82">
         <v>43252</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -4310,7 +4303,7 @@
       <c r="A16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="82">
         <v>43251</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -4513,7 +4506,7 @@
       <c r="A17" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="82">
         <v>43376</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -4714,7 +4707,7 @@
       <c r="A18" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>43059</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4922,7 +4915,7 @@
       <c r="A19" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="84">
         <v>43124</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -5130,7 +5123,7 @@
       <c r="A20" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>43127</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -5344,7 +5337,7 @@
       <c r="A21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>43134</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -5556,7 +5549,7 @@
       <c r="A22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>43136</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -5770,7 +5763,7 @@
       <c r="A23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>43054</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -5978,7 +5971,7 @@
       <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>43061</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -6192,7 +6185,7 @@
       <c r="A25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>43070</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -6406,7 +6399,7 @@
       <c r="A26" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="85">
         <v>43272</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -6609,7 +6602,7 @@
       <c r="A27" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="85">
         <v>43255</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -6812,7 +6805,7 @@
       <c r="A28" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="85">
         <v>43269</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -7015,7 +7008,7 @@
       <c r="A29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="85">
         <v>43262</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -7218,7 +7211,7 @@
       <c r="A30" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="85">
         <v>43264</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -7553,7 +7546,7 @@
       <c r="A31" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="85">
         <v>43367</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -7892,7 +7885,7 @@
       <c r="A32" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="85">
         <v>43388</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -8229,8 +8222,8 @@
       <c r="A33" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="81" t="s">
-        <v>156</v>
+      <c r="B33" s="85">
+        <v>43424</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>91</v>
@@ -8429,7 +8422,7 @@
         <v>36</v>
       </c>
       <c r="BO33" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BP33" s="34"/>
       <c r="BQ33" s="34"/>
@@ -10568,10 +10561,10 @@
     </row>
     <row r="44" spans="1:199" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="86" t="s">
         <v>158</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>159</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>119</v>
@@ -10748,10 +10741,10 @@
       <c r="BG44" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="BH44" s="87">
+      <c r="BH44" s="81">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BI44" s="87">
+      <c r="BI44" s="81">
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ44" s="50" t="s">
@@ -10770,7 +10763,7 @@
         <v>12</v>
       </c>
       <c r="BO44" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:199" x14ac:dyDescent="0.2">
